--- a/capiq_data/in_process_data/IQ33813.xlsx
+++ b/capiq_data/in_process_data/IQ33813.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCDA982-C353-435A-B851-FF21DA5D370F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8893B24-D5BE-4C9F-9436-CC2B2DFE6A36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"64fb0411-374e-4079-b74b-921d1bb8bc62"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"9ed8116a-8223-4f1e-b253-94f9f3a379b3"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,123 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
     <t>FQ32010</t>
   </si>
   <si>
@@ -296,6 +413,9 @@
   </si>
   <si>
     <t>FQ32020</t>
+  </si>
+  <si>
+    <t>FQ42020</t>
   </si>
 </sst>
 </file>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40451</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>12.5</v>
+        <v>-51.3</v>
       </c>
       <c r="D2">
-        <v>319</v>
+        <v>313.60000000000002</v>
       </c>
       <c r="E2">
-        <v>172.9</v>
+        <v>220.5</v>
       </c>
       <c r="F2">
-        <v>208.6</v>
+        <v>177.4</v>
       </c>
       <c r="G2">
-        <v>404.3</v>
+        <v>527.70000000000005</v>
       </c>
       <c r="H2">
-        <v>794.8</v>
+        <v>1101.8</v>
       </c>
       <c r="I2">
-        <v>89.9</v>
+        <v>86.3</v>
       </c>
       <c r="J2">
-        <v>1208.5999999999999</v>
+        <v>1563.1</v>
       </c>
       <c r="K2">
-        <v>6.5</v>
+        <v>30.7</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,37 +892,37 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>317.39999999999998</v>
+        <v>427.7</v>
       </c>
       <c r="O2">
-        <v>1786.6</v>
+        <v>2208.5</v>
       </c>
       <c r="P2">
-        <v>1223.0999999999999</v>
+        <v>1593.8</v>
       </c>
       <c r="Q2">
-        <v>1.9</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="R2">
-        <v>40451</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="T2">
-        <v>-991.8</v>
+        <v>-1106.7</v>
       </c>
       <c r="U2">
-        <v>40.5</v>
+        <v>56.3</v>
       </c>
       <c r="V2">
-        <v>9.5</v>
+        <v>47.7</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-5.2</v>
+        <v>-10.5</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +931,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>12.5</v>
+        <v>-51.3</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>296.2</v>
+        <v>-46.5</v>
       </c>
       <c r="D3">
-        <v>369.2</v>
+        <v>313.60000000000002</v>
       </c>
       <c r="E3">
-        <v>197.5</v>
+        <v>213.1</v>
       </c>
       <c r="F3">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="G3">
-        <v>476.1</v>
+        <v>498.7</v>
       </c>
       <c r="H3">
-        <v>1086.7</v>
+        <v>1060.4000000000001</v>
       </c>
       <c r="I3">
-        <v>88.3</v>
+        <v>89.2</v>
       </c>
       <c r="J3">
-        <v>1207.4000000000001</v>
+        <v>1582.3</v>
       </c>
       <c r="K3">
-        <v>3.7</v>
+        <v>31.4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-65.099999999999994</v>
       </c>
       <c r="N3">
-        <v>318.5</v>
+        <v>412.5</v>
       </c>
       <c r="O3">
-        <v>1783.1</v>
+        <v>2214.1999999999998</v>
       </c>
       <c r="P3">
-        <v>1219.0999999999999</v>
+        <v>1613.7</v>
       </c>
       <c r="Q3">
-        <v>36.200000000000003</v>
+        <v>-26.1</v>
       </c>
       <c r="R3">
-        <v>40543</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>-696.4</v>
+        <v>-1153.8</v>
       </c>
       <c r="U3">
-        <v>76.7</v>
+        <v>30.2</v>
       </c>
       <c r="V3">
-        <v>47.2</v>
+        <v>-45.6</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-8.8000000000000007</v>
+        <v>21.8</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,81 +1014,81 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>296.2</v>
+        <v>-46.5</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>10.4</v>
+        <v>-56</v>
       </c>
       <c r="D4">
-        <v>333.2</v>
+        <v>322.10000000000002</v>
       </c>
       <c r="E4">
-        <v>182.4</v>
+        <v>205.7</v>
       </c>
       <c r="F4">
-        <v>219.9</v>
+        <v>179.1</v>
       </c>
       <c r="G4">
         <v>468.9</v>
       </c>
       <c r="H4">
-        <v>1105.5</v>
+        <v>1018.4</v>
       </c>
       <c r="I4">
-        <v>98.1</v>
+        <v>105.2</v>
       </c>
       <c r="J4">
-        <v>1206.2</v>
+        <v>1173.5</v>
       </c>
       <c r="K4">
-        <v>6.4</v>
+        <v>30</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>336.2</v>
+        <v>831.3</v>
       </c>
       <c r="O4">
-        <v>1792</v>
+        <v>2221</v>
       </c>
       <c r="P4">
-        <v>1220.5999999999999</v>
+        <v>1606.6</v>
       </c>
       <c r="Q4">
-        <v>-15.5</v>
+        <v>4.2</v>
       </c>
       <c r="R4">
-        <v>40633</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>-686.5</v>
+        <v>-1202.5999999999999</v>
       </c>
       <c r="U4">
-        <v>61.2</v>
+        <v>34.4</v>
       </c>
       <c r="V4">
-        <v>24.1</v>
+        <v>-14.8</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>-6.4</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>10.4</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-22.9</v>
       </c>
       <c r="D5">
-        <v>351.2</v>
+        <v>320.2</v>
       </c>
       <c r="E5">
-        <v>185.7</v>
+        <v>203.5</v>
       </c>
       <c r="F5">
-        <v>229.3</v>
+        <v>196.2</v>
       </c>
       <c r="G5">
-        <v>465.2</v>
+        <v>468.5</v>
       </c>
       <c r="H5">
-        <v>1100</v>
+        <v>965.5</v>
       </c>
       <c r="I5">
-        <v>103</v>
+        <v>99.6</v>
       </c>
       <c r="J5">
-        <v>1216.8</v>
+        <v>1173.5999999999999</v>
       </c>
       <c r="K5">
-        <v>9</v>
+        <v>30.3</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>320.60000000000002</v>
+        <v>781.1</v>
       </c>
       <c r="O5">
-        <v>1777.5</v>
+        <v>2171.4</v>
       </c>
       <c r="P5">
-        <v>1243.8</v>
+        <v>1577.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="R5">
-        <v>40724</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>-677.5</v>
+        <v>-1205.9000000000001</v>
       </c>
       <c r="U5">
-        <v>44.9</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>-28.6</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>6.5</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>-28.3</v>
       </c>
       <c r="D6">
-        <v>337.2</v>
+        <v>321.7</v>
       </c>
       <c r="E6">
-        <v>185.5</v>
+        <v>203.9</v>
       </c>
       <c r="F6">
-        <v>214.1</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="G6">
-        <v>472.5</v>
+        <v>512.9</v>
       </c>
       <c r="H6">
-        <v>1081.7</v>
+        <v>997.6</v>
       </c>
       <c r="I6">
-        <v>93.2</v>
+        <v>87</v>
       </c>
       <c r="J6">
-        <v>1215.3</v>
+        <v>1643.6</v>
       </c>
       <c r="K6">
-        <v>9.1999999999999993</v>
+        <v>17.5</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>323.89999999999998</v>
+        <v>385.8</v>
       </c>
       <c r="O6">
-        <v>1766.8</v>
+        <v>2280.3000000000002</v>
       </c>
       <c r="P6">
-        <v>1232.5</v>
+        <v>1661.1</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="R6">
-        <v>40816</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T6">
-        <v>-685.1</v>
+        <v>-1282.7</v>
       </c>
       <c r="U6">
-        <v>49.9</v>
+        <v>103.3</v>
       </c>
       <c r="V6">
-        <v>16.899999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-6.4</v>
+        <v>61.9</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,164 +1263,164 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.1</v>
+        <v>-28.3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>36.4</v>
+        <v>-46.1</v>
       </c>
       <c r="D7">
-        <v>359.8</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="E7">
-        <v>212</v>
+        <v>189.8</v>
       </c>
       <c r="F7">
-        <v>225.5</v>
+        <v>166.4</v>
       </c>
       <c r="G7">
-        <v>518.70000000000005</v>
+        <v>472.5</v>
       </c>
       <c r="H7">
-        <v>1157.0999999999999</v>
+        <v>955.2</v>
       </c>
       <c r="I7">
-        <v>89.8</v>
+        <v>86.2</v>
       </c>
       <c r="J7">
-        <v>1213.8</v>
+        <v>1650</v>
       </c>
       <c r="K7">
-        <v>5.9</v>
+        <v>22.3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="N7">
-        <v>335.4</v>
+        <v>387.1</v>
       </c>
       <c r="O7">
-        <v>1850</v>
+        <v>2289.6</v>
       </c>
       <c r="P7">
-        <v>1227.7</v>
+        <v>1672.3</v>
       </c>
       <c r="Q7">
-        <v>51.8</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="R7">
-        <v>40908</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>-692.9</v>
+        <v>-1334.4</v>
       </c>
       <c r="U7">
-        <v>101.7</v>
+        <v>67.5</v>
       </c>
       <c r="V7">
-        <v>67.8</v>
+        <v>-41.7</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-12.1</v>
+        <v>11</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AA7">
-        <v>36.4</v>
+        <v>-46.1</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>8.5</v>
+        <v>-38.9</v>
       </c>
       <c r="D8">
-        <v>330.7</v>
+        <v>308.2</v>
       </c>
       <c r="E8">
-        <v>190</v>
+        <v>209.2</v>
       </c>
       <c r="F8">
-        <v>215</v>
+        <v>188.4</v>
       </c>
       <c r="G8">
-        <v>512.4</v>
+        <v>447.8</v>
       </c>
       <c r="H8">
-        <v>1156.7</v>
+        <v>921.2</v>
       </c>
       <c r="I8">
-        <v>92.8</v>
+        <v>88.3</v>
       </c>
       <c r="J8">
-        <v>1212.3</v>
+        <v>1678.8</v>
       </c>
       <c r="K8">
-        <v>8.5</v>
+        <v>22.6</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>327.5</v>
+        <v>366.9</v>
       </c>
       <c r="O8">
-        <v>1836.3</v>
+        <v>2297.8000000000002</v>
       </c>
       <c r="P8">
-        <v>1228.8</v>
+        <v>1701.4</v>
       </c>
       <c r="Q8">
-        <v>-14.2</v>
+        <v>-35.5</v>
       </c>
       <c r="R8">
-        <v>40999</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>-679.6</v>
+        <v>-1376.6</v>
       </c>
       <c r="U8">
-        <v>87.5</v>
+        <v>32</v>
       </c>
       <c r="V8">
-        <v>-20.399999999999999</v>
+        <v>-60.7</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>9.1</v>
+        <v>26.9</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>8.5</v>
+        <v>-38.9</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-22.1</v>
       </c>
       <c r="D9">
-        <v>357.1</v>
+        <v>323.2</v>
       </c>
       <c r="E9">
-        <v>204.5</v>
+        <v>218.6</v>
       </c>
       <c r="F9">
-        <v>232.7</v>
+        <v>201.6</v>
       </c>
       <c r="G9">
-        <v>534.1</v>
+        <v>488.1</v>
       </c>
       <c r="H9">
-        <v>1173.9000000000001</v>
+        <v>961.6</v>
       </c>
       <c r="I9">
-        <v>95.5</v>
+        <v>97</v>
       </c>
       <c r="J9">
-        <v>1207.4000000000001</v>
+        <v>1717.7</v>
       </c>
       <c r="K9">
-        <v>8.5</v>
+        <v>24.4</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>356.3</v>
+        <v>388.2</v>
       </c>
       <c r="O9">
-        <v>1839.5</v>
+        <v>2361.8000000000002</v>
       </c>
       <c r="P9">
-        <v>1227.3</v>
+        <v>1742.1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>27.2</v>
       </c>
       <c r="R9">
-        <v>41090</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>-665.6</v>
+        <v>-1400.2</v>
       </c>
       <c r="U9">
-        <v>79.8</v>
+        <v>59.2</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>-8.5</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>11.1</v>
+        <v>-22.1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-15</v>
+        <v>-179.4</v>
       </c>
       <c r="D10">
-        <v>347</v>
+        <v>212.6</v>
       </c>
       <c r="E10">
-        <v>195.7</v>
+        <v>212.3</v>
       </c>
       <c r="F10">
-        <v>221.1</v>
+        <v>77</v>
       </c>
       <c r="G10">
-        <v>490.2</v>
+        <v>467.8</v>
       </c>
       <c r="H10">
-        <v>1183.5999999999999</v>
+        <v>933.7</v>
       </c>
       <c r="I10">
-        <v>102.7</v>
+        <v>92.9</v>
       </c>
       <c r="J10">
-        <v>1209.0999999999999</v>
+        <v>1750.1</v>
       </c>
       <c r="K10">
-        <v>8.3000000000000007</v>
+        <v>25</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>385.5</v>
+        <v>497.1</v>
       </c>
       <c r="O10">
-        <v>1864.3</v>
+        <v>2572.1999999999998</v>
       </c>
       <c r="P10">
-        <v>1225.4000000000001</v>
+        <v>1775.1</v>
       </c>
       <c r="Q10">
-        <v>-34.6</v>
+        <v>26.6</v>
       </c>
       <c r="R10">
-        <v>41182</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T10">
-        <v>-680.7</v>
+        <v>-1638.5</v>
       </c>
       <c r="U10">
-        <v>45.2</v>
+        <v>85.8</v>
       </c>
       <c r="V10">
-        <v>39.6</v>
+        <v>-1.4</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-2.8</v>
+        <v>31.8</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>-15</v>
+        <v>-179.4</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>46.5</v>
+        <v>-48.7</v>
       </c>
       <c r="D11">
-        <v>361.6</v>
+        <v>292</v>
       </c>
       <c r="E11">
-        <v>216</v>
+        <v>200.5</v>
       </c>
       <c r="F11">
-        <v>235</v>
+        <v>180.5</v>
       </c>
       <c r="G11">
-        <v>541.20000000000005</v>
+        <v>438</v>
       </c>
       <c r="H11">
-        <v>1236.5999999999999</v>
+        <v>917.7</v>
       </c>
       <c r="I11">
-        <v>101.9</v>
+        <v>113.3</v>
       </c>
       <c r="J11">
-        <v>1145.8</v>
+        <v>1764.6</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>26.9</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-17.5</v>
       </c>
       <c r="N11">
-        <v>453.1</v>
+        <v>522.20000000000005</v>
       </c>
       <c r="O11">
-        <v>1885.9</v>
+        <v>2605.4</v>
       </c>
       <c r="P11">
-        <v>1220.7</v>
+        <v>1791.5</v>
       </c>
       <c r="Q11">
-        <v>71.099999999999994</v>
+        <v>-51</v>
       </c>
       <c r="R11">
-        <v>41274</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>-649.29999999999995</v>
+        <v>-1687.7</v>
       </c>
       <c r="U11">
-        <v>116.3</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="V11">
-        <v>86.2</v>
+        <v>-60.5</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-9.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,81 +1678,81 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>46.5</v>
+        <v>-48.7</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-6.9</v>
+        <v>-37.799999999999997</v>
       </c>
       <c r="D12">
-        <v>325.89999999999998</v>
+        <v>322.3</v>
       </c>
       <c r="E12">
-        <v>185.9</v>
+        <v>206.7</v>
       </c>
       <c r="F12">
-        <v>211.5</v>
+        <v>197.1</v>
       </c>
       <c r="G12">
-        <v>539.4</v>
+        <v>446.3</v>
       </c>
       <c r="H12">
-        <v>1241.9000000000001</v>
+        <v>929.5</v>
       </c>
       <c r="I12">
-        <v>112.1</v>
+        <v>100</v>
       </c>
       <c r="J12">
-        <v>1227.5999999999999</v>
+        <v>1798.5</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>27.8</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>-443</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>386.5</v>
+        <v>486.3</v>
       </c>
       <c r="O12">
-        <v>1897</v>
+        <v>2599.5</v>
       </c>
       <c r="P12">
-        <v>1281.0999999999999</v>
+        <v>1826.3</v>
       </c>
       <c r="Q12">
-        <v>4.5</v>
+        <v>-0.4</v>
       </c>
       <c r="R12">
-        <v>41364</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>-655.1</v>
+        <v>-1670</v>
       </c>
       <c r="U12">
-        <v>120.8</v>
+        <v>34.4</v>
       </c>
       <c r="V12">
-        <v>-16.899999999999999</v>
+        <v>-74.3</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>28.7</v>
+        <v>79.3</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>-6.9</v>
+        <v>-37.799999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>24.7</v>
+        <v>-54.7</v>
       </c>
       <c r="D13">
-        <v>344.7</v>
+        <v>316.5</v>
       </c>
       <c r="E13">
-        <v>185.5</v>
+        <v>179.7</v>
       </c>
       <c r="F13">
-        <v>222.3</v>
+        <v>189.4</v>
       </c>
       <c r="G13">
-        <v>577.9</v>
+        <v>409.6</v>
       </c>
       <c r="H13">
-        <v>1269.7</v>
+        <v>898.2</v>
       </c>
       <c r="I13">
-        <v>108.2</v>
+        <v>89.2</v>
       </c>
       <c r="J13">
-        <v>1227.9000000000001</v>
+        <v>1856.3</v>
       </c>
       <c r="K13">
-        <v>5.2</v>
+        <v>28.7</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>397.3</v>
+        <v>450</v>
       </c>
       <c r="O13">
-        <v>1902.1</v>
+        <v>2622.9</v>
       </c>
       <c r="P13">
-        <v>1281.5999999999999</v>
+        <v>1885</v>
       </c>
       <c r="Q13">
-        <v>20.5</v>
+        <v>0.2</v>
       </c>
       <c r="R13">
-        <v>41455</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>-632.4</v>
+        <v>-1724.7</v>
       </c>
       <c r="U13">
-        <v>141.30000000000001</v>
+        <v>34.6</v>
       </c>
       <c r="V13">
-        <v>28.2</v>
+        <v>-49.1</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>55.2</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>24.7</v>
+        <v>-54.7</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>9.5</v>
+        <v>-12.6</v>
       </c>
       <c r="D14">
-        <v>333.1</v>
+        <v>368.5</v>
       </c>
       <c r="E14">
-        <v>194.1</v>
+        <v>182.5</v>
       </c>
       <c r="F14">
-        <v>212</v>
+        <v>231.2</v>
       </c>
       <c r="G14">
-        <v>577</v>
+        <v>415.6</v>
       </c>
       <c r="H14">
-        <v>1259.4000000000001</v>
+        <v>892.2</v>
       </c>
       <c r="I14">
-        <v>103.4</v>
+        <v>97.4</v>
       </c>
       <c r="J14">
-        <v>1228.2</v>
+        <v>1869.5</v>
       </c>
       <c r="K14">
-        <v>6.6</v>
+        <v>28</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>384.6</v>
+        <v>447.3</v>
       </c>
       <c r="O14">
-        <v>1879.2</v>
+        <v>2617.8000000000002</v>
       </c>
       <c r="P14">
-        <v>1283.4000000000001</v>
+        <v>1897.5</v>
       </c>
       <c r="Q14">
-        <v>-2</v>
+        <v>21.9</v>
       </c>
       <c r="R14">
-        <v>41547</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>6100</v>
       </c>
       <c r="T14">
-        <v>-619.79999999999995</v>
+        <v>-1725.6</v>
       </c>
       <c r="U14">
-        <v>139.30000000000001</v>
+        <v>56.5</v>
       </c>
       <c r="V14">
-        <v>-5.5</v>
+        <v>17.5</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-7</v>
+        <v>6.9</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>9.5</v>
+        <v>-12.6</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-33.1</v>
+        <v>-58.2</v>
       </c>
       <c r="D15">
-        <v>491</v>
+        <v>308.39999999999998</v>
       </c>
       <c r="E15">
-        <v>253.5</v>
+        <v>154.6</v>
       </c>
       <c r="F15">
-        <v>312.5</v>
+        <v>191.3</v>
       </c>
       <c r="G15">
-        <v>799.1</v>
+        <v>410.9</v>
       </c>
       <c r="H15">
-        <v>2016.9</v>
+        <v>884.9</v>
       </c>
       <c r="I15">
-        <v>165.7</v>
+        <v>95.9</v>
       </c>
       <c r="J15">
-        <v>1862.3</v>
+        <v>1103.5999999999999</v>
       </c>
       <c r="K15">
-        <v>7.9</v>
+        <v>29.8</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-168.8</v>
       </c>
       <c r="N15">
-        <v>552.70000000000005</v>
+        <v>442.6</v>
       </c>
       <c r="O15">
-        <v>2613.4</v>
+        <v>1841.3</v>
       </c>
       <c r="P15">
-        <v>1935.6</v>
+        <v>1133.4000000000001</v>
       </c>
       <c r="Q15">
-        <v>104.8</v>
+        <v>-2.7</v>
       </c>
       <c r="R15">
-        <v>41639</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>5960</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>-596.5</v>
+        <v>-956.4</v>
       </c>
       <c r="U15">
-        <v>244.1</v>
+        <v>53.8</v>
       </c>
       <c r="V15">
-        <v>117.5</v>
+        <v>-35.6</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>626.29999999999995</v>
+        <v>32</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,81 +2010,81 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>-33.1</v>
+        <v>-58.2</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>5.5</v>
+        <v>-38.9</v>
       </c>
       <c r="D16">
-        <v>469.8</v>
+        <v>316.10000000000002</v>
       </c>
       <c r="E16">
-        <v>265.5</v>
+        <v>170.4</v>
       </c>
       <c r="F16">
-        <v>308.89999999999998</v>
+        <v>197.7</v>
       </c>
       <c r="G16">
-        <v>783.8</v>
+        <v>425.3</v>
       </c>
       <c r="H16">
-        <v>2105.1</v>
+        <v>894.3</v>
       </c>
       <c r="I16">
-        <v>185.6</v>
+        <v>105.1</v>
       </c>
       <c r="J16">
-        <v>1861.3</v>
+        <v>1170.4000000000001</v>
       </c>
       <c r="K16">
-        <v>11.8</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>534.9</v>
+        <v>426.7</v>
       </c>
       <c r="O16">
-        <v>2694.1</v>
+        <v>1887.8</v>
       </c>
       <c r="P16">
-        <v>1938.5</v>
+        <v>1204.0999999999999</v>
       </c>
       <c r="Q16">
-        <v>-47.8</v>
+        <v>-2.1</v>
       </c>
       <c r="R16">
-        <v>41729</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>-589</v>
+        <v>-993.5</v>
       </c>
       <c r="U16">
-        <v>196.3</v>
+        <v>51.7</v>
       </c>
       <c r="V16">
-        <v>-45.5</v>
+        <v>-64.5</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>2.2000000000000002</v>
+        <v>70.3</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +2093,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>5.5</v>
+        <v>-38.9</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>18.100000000000001</v>
+        <v>-91.6</v>
       </c>
       <c r="D17">
-        <v>497.9</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="E17">
-        <v>270.39999999999998</v>
+        <v>171.8</v>
       </c>
       <c r="F17">
-        <v>330.8</v>
+        <v>176.5</v>
       </c>
       <c r="G17">
-        <v>742.6</v>
+        <v>470.6</v>
       </c>
       <c r="H17">
-        <v>1938.7</v>
+        <v>937.1</v>
       </c>
       <c r="I17">
-        <v>172.9</v>
+        <v>80.400000000000006</v>
       </c>
       <c r="J17">
-        <v>1862</v>
+        <v>1318.7</v>
       </c>
       <c r="K17">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>467.3</v>
+        <v>412</v>
       </c>
       <c r="O17">
-        <v>2510.5</v>
+        <v>2020.8</v>
       </c>
       <c r="P17">
-        <v>1882</v>
+        <v>1351.2</v>
       </c>
       <c r="Q17">
-        <v>-38.6</v>
+        <v>32.1</v>
       </c>
       <c r="R17">
-        <v>41820</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>-571.79999999999995</v>
+        <v>-1083.7</v>
       </c>
       <c r="U17">
-        <v>157.69999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="V17">
-        <v>39.1</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-59.9</v>
+        <v>69.8</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>18.100000000000001</v>
+        <v>-91.6</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>14.6</v>
+        <v>46.2</v>
       </c>
       <c r="D18">
-        <v>472.3</v>
+        <v>378.3</v>
       </c>
       <c r="E18">
-        <v>256</v>
+        <v>200.6</v>
       </c>
       <c r="F18">
-        <v>307.8</v>
+        <v>246.4</v>
       </c>
       <c r="G18">
-        <v>744.9</v>
+        <v>545.79999999999995</v>
       </c>
       <c r="H18">
-        <v>1912.6</v>
+        <v>1000.5</v>
       </c>
       <c r="I18">
-        <v>167.7</v>
+        <v>90.8</v>
       </c>
       <c r="J18">
-        <v>1858.5</v>
+        <v>1308.2</v>
       </c>
       <c r="K18">
-        <v>7.9</v>
+        <v>36.6</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>444</v>
+        <v>425.5</v>
       </c>
       <c r="O18">
-        <v>2483.1999999999998</v>
+        <v>2020.4</v>
       </c>
       <c r="P18">
-        <v>1873.4</v>
+        <v>1355.3</v>
       </c>
       <c r="Q18">
-        <v>20.7</v>
+        <v>37</v>
       </c>
       <c r="R18">
-        <v>41912</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="T18">
-        <v>-570.6</v>
+        <v>-1019.9</v>
       </c>
       <c r="U18">
-        <v>178.4</v>
+        <v>120.8</v>
       </c>
       <c r="V18">
-        <v>53.1</v>
+        <v>41.1</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-13</v>
+        <v>2.4</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,208 +2259,208 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>14.6</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>2.7</v>
+        <v>-46.8</v>
       </c>
       <c r="D19">
-        <v>501</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="E19">
-        <v>238.9</v>
+        <v>152.30000000000001</v>
       </c>
       <c r="F19">
-        <v>328.4</v>
+        <v>186.7</v>
       </c>
       <c r="G19">
-        <v>773.8</v>
+        <v>696.3</v>
       </c>
       <c r="H19">
-        <v>1944.1</v>
+        <v>1155.0999999999999</v>
       </c>
       <c r="I19">
-        <v>153.5</v>
+        <v>100.9</v>
       </c>
       <c r="J19">
-        <v>1833.8</v>
+        <v>1337</v>
       </c>
       <c r="K19">
-        <v>6.6</v>
+        <v>33.9</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-105</v>
       </c>
       <c r="N19">
-        <v>464.9</v>
+        <v>596.9</v>
       </c>
       <c r="O19">
-        <v>2588.1999999999998</v>
+        <v>2220.5</v>
       </c>
       <c r="P19">
-        <v>1871.9</v>
+        <v>1562.6</v>
       </c>
       <c r="Q19">
-        <v>96.9</v>
+        <v>-16.7</v>
       </c>
       <c r="R19">
-        <v>42004</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>-644.1</v>
+        <v>-1065.4000000000001</v>
       </c>
       <c r="U19">
-        <v>275.3</v>
+        <v>104.1</v>
       </c>
       <c r="V19">
-        <v>127.3</v>
+        <v>-7.6</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-4.4000000000000004</v>
+        <v>193.7</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-197.9</v>
       </c>
       <c r="AA19">
-        <v>2.7</v>
+        <v>-46.8</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>-0.9</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="D20">
-        <v>438.5</v>
+        <v>318.3</v>
       </c>
       <c r="E20">
-        <v>231.8</v>
+        <v>148.4</v>
       </c>
       <c r="F20">
-        <v>296.2</v>
+        <v>199.4</v>
       </c>
       <c r="G20">
-        <v>735.5</v>
+        <v>474.8</v>
       </c>
       <c r="H20">
-        <v>1873.7</v>
+        <v>925.4</v>
       </c>
       <c r="I20">
-        <v>166.8</v>
+        <v>99.7</v>
       </c>
       <c r="J20">
-        <v>1834.3</v>
+        <v>1337</v>
       </c>
       <c r="K20">
-        <v>6.4</v>
+        <v>37.5</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-26.3</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>420.4</v>
+        <v>404.6</v>
       </c>
       <c r="O20">
-        <v>2532.6</v>
+        <v>2027.8</v>
       </c>
       <c r="P20">
-        <v>1847.6</v>
+        <v>1374.5</v>
       </c>
       <c r="Q20">
-        <v>-67.099999999999994</v>
+        <v>-37.4</v>
       </c>
       <c r="R20">
-        <v>42094</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>-658.9</v>
+        <v>-1102.4000000000001</v>
       </c>
       <c r="U20">
-        <v>208.2</v>
+        <v>66.7</v>
       </c>
       <c r="V20">
-        <v>-25.6</v>
+        <v>-39.200000000000003</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-25.8</v>
+        <v>-188.3</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>197.9</v>
       </c>
       <c r="AA20">
-        <v>-0.9</v>
+        <v>-35.799999999999997</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>-65.400000000000006</v>
       </c>
       <c r="D21">
-        <v>482.4</v>
+        <v>275.3</v>
       </c>
       <c r="E21">
-        <v>256.39999999999998</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="F21">
-        <v>321.7</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="G21">
-        <v>772.7</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="H21">
-        <v>1926.6</v>
+        <v>979.8</v>
       </c>
       <c r="I21">
-        <v>189</v>
+        <v>111.4</v>
       </c>
       <c r="J21">
-        <v>1832.5</v>
+        <v>1413.3</v>
       </c>
       <c r="K21">
-        <v>8.5</v>
+        <v>40.4</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>450.6</v>
+        <v>449.6</v>
       </c>
       <c r="O21">
-        <v>2555.8000000000002</v>
+        <v>2148.4</v>
       </c>
       <c r="P21">
-        <v>1847.9</v>
+        <v>1453.7</v>
       </c>
       <c r="Q21">
-        <v>-9.1999999999999993</v>
+        <v>11</v>
       </c>
       <c r="R21">
-        <v>42185</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>-629.20000000000005</v>
+        <v>-1168.5999999999999</v>
       </c>
       <c r="U21">
-        <v>199</v>
+        <v>77.7</v>
       </c>
       <c r="V21">
-        <v>28.1</v>
+        <v>-69.099999999999994</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>2.2999999999999998</v>
+        <v>86.7</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>26</v>
+        <v>-65.400000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>6.2</v>
+        <v>64.3</v>
       </c>
       <c r="D22">
-        <v>471.5</v>
+        <v>437.8</v>
       </c>
       <c r="E22">
-        <v>260.39999999999998</v>
+        <v>282.2</v>
       </c>
       <c r="F22">
-        <v>303.60000000000002</v>
+        <v>279.8</v>
       </c>
       <c r="G22">
-        <v>780.5</v>
+        <v>592</v>
       </c>
       <c r="H22">
-        <v>1924.5</v>
+        <v>1043.7</v>
       </c>
       <c r="I22">
-        <v>182.8</v>
+        <v>133.1</v>
       </c>
       <c r="J22">
-        <v>1832.3</v>
+        <v>1413.4</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>446.1</v>
+        <v>470.5</v>
       </c>
       <c r="O22">
-        <v>2547.8000000000002</v>
+        <v>2139.6</v>
       </c>
       <c r="P22">
-        <v>1849.2</v>
+        <v>1422.4</v>
       </c>
       <c r="Q22">
-        <v>-17.8</v>
+        <v>-45.2</v>
       </c>
       <c r="R22">
-        <v>42277</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>6800</v>
       </c>
       <c r="T22">
-        <v>-623.29999999999995</v>
+        <v>-1095.9000000000001</v>
       </c>
       <c r="U22">
-        <v>181.2</v>
+        <v>32.5</v>
       </c>
       <c r="V22">
-        <v>-5.0999999999999996</v>
+        <v>-23.8</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-4.9000000000000004</v>
+        <v>-24.5</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>6.2</v>
+        <v>64.3</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>24.8</v>
+        <v>-58.2</v>
       </c>
       <c r="D23">
-        <v>521.9</v>
+        <v>325.5</v>
       </c>
       <c r="E23">
-        <v>244.9</v>
+        <v>167.2</v>
       </c>
       <c r="F23">
-        <v>336.4</v>
+        <v>208.2</v>
       </c>
       <c r="G23">
-        <v>808.9</v>
+        <v>609.5</v>
       </c>
       <c r="H23">
-        <v>1967.3</v>
+        <v>1085.4000000000001</v>
       </c>
       <c r="I23">
-        <v>201.3</v>
+        <v>120.6</v>
       </c>
       <c r="J23">
-        <v>1786.2</v>
+        <v>1303.9000000000001</v>
       </c>
       <c r="K23">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-4.3</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>515</v>
+        <v>572.20000000000005</v>
       </c>
       <c r="O23">
-        <v>2554.8000000000002</v>
+        <v>2127.5</v>
       </c>
       <c r="P23">
-        <v>1827.5</v>
+        <v>1425.4</v>
       </c>
       <c r="Q23">
-        <v>145.69999999999999</v>
+        <v>104.7</v>
       </c>
       <c r="R23">
-        <v>42369</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>-587.5</v>
+        <v>-1042.0999999999999</v>
       </c>
       <c r="U23">
-        <v>326.89999999999998</v>
+        <v>137.19999999999999</v>
       </c>
       <c r="V23">
-        <v>157.9</v>
+        <v>8.5</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>16.3</v>
+        <v>101.4</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,81 +2674,81 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>24.8</v>
+        <v>-58.2</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>-87.1</v>
       </c>
       <c r="D24">
-        <v>439.6</v>
+        <v>321.10000000000002</v>
       </c>
       <c r="E24">
-        <v>270.39999999999998</v>
+        <v>173</v>
       </c>
       <c r="F24">
-        <v>285.7</v>
+        <v>183.1</v>
       </c>
       <c r="G24">
-        <v>731.3</v>
+        <v>481.3</v>
       </c>
       <c r="H24">
-        <v>1887.7</v>
+        <v>960.7</v>
       </c>
       <c r="I24">
-        <v>178.4</v>
+        <v>110.2</v>
       </c>
       <c r="J24">
-        <v>1787.5</v>
+        <v>1403.3</v>
       </c>
       <c r="K24">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="L24">
-        <v>-10.6</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-24.9</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>422.8</v>
+        <v>425.9</v>
       </c>
       <c r="O24">
-        <v>2461</v>
+        <v>2087.3000000000002</v>
       </c>
       <c r="P24">
-        <v>1806.1</v>
+        <v>1420.7</v>
       </c>
       <c r="Q24">
-        <v>-144.69999999999999</v>
+        <v>-116</v>
       </c>
       <c r="R24">
-        <v>42460</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>-573.29999999999995</v>
+        <v>-1126.5999999999999</v>
       </c>
       <c r="U24">
-        <v>182.2</v>
+        <v>21.2</v>
       </c>
       <c r="V24">
-        <v>-99.8</v>
+        <v>-104</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-39</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>11</v>
+        <v>-87.1</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>8.3000000000000007</v>
+        <v>-100.5</v>
       </c>
       <c r="D25">
-        <v>488.9</v>
+        <v>305.89999999999998</v>
       </c>
       <c r="E25">
-        <v>268.39999999999998</v>
+        <v>166.9</v>
       </c>
       <c r="F25">
-        <v>317.5</v>
+        <v>168.5</v>
       </c>
       <c r="G25">
-        <v>738.1</v>
+        <v>454.2</v>
       </c>
       <c r="H25">
-        <v>1914.8</v>
+        <v>924.6</v>
       </c>
       <c r="I25">
-        <v>187.6</v>
+        <v>99.8</v>
       </c>
       <c r="J25">
-        <v>1787</v>
+        <v>1446.8</v>
       </c>
       <c r="K25">
-        <v>14.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>441.9</v>
+        <v>461.8</v>
       </c>
       <c r="O25">
-        <v>2476.5</v>
+        <v>2149.6</v>
       </c>
       <c r="P25">
-        <v>1807.9</v>
+        <v>1465.1</v>
       </c>
       <c r="Q25">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="R25">
-        <v>42551</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>-561.70000000000005</v>
+        <v>-1225</v>
       </c>
       <c r="U25">
-        <v>185.8</v>
+        <v>23.9</v>
       </c>
       <c r="V25">
-        <v>47.9</v>
+        <v>-29.3</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-2.9</v>
+        <v>36.4</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>8.3000000000000007</v>
+        <v>-100.5</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-4.7</v>
+        <v>-5.5</v>
       </c>
       <c r="D26">
-        <v>604.79999999999995</v>
+        <v>378.9</v>
       </c>
       <c r="E26">
-        <v>484.2</v>
+        <v>207.8</v>
       </c>
       <c r="F26">
-        <v>365.8</v>
+        <v>226.1</v>
       </c>
       <c r="G26">
-        <v>1205.3</v>
+        <v>488</v>
       </c>
       <c r="H26">
-        <v>3113.7</v>
+        <v>931.9</v>
       </c>
       <c r="I26">
-        <v>307.89999999999998</v>
+        <v>95.1</v>
       </c>
       <c r="J26">
-        <v>2668.4</v>
+        <v>1501.8</v>
       </c>
       <c r="K26">
-        <v>11.7</v>
+        <v>9.6</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>747.9</v>
+        <v>377.2</v>
       </c>
       <c r="O26">
-        <v>3673.3</v>
+        <v>2161.6999999999998</v>
       </c>
       <c r="P26">
-        <v>2767.6</v>
+        <v>1511.4</v>
       </c>
       <c r="Q26">
-        <v>-86.6</v>
+        <v>11.5</v>
       </c>
       <c r="R26">
-        <v>42643</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T26">
-        <v>-559.6</v>
+        <v>-1229.8</v>
       </c>
       <c r="U26">
-        <v>99.2</v>
+        <v>35.4</v>
       </c>
       <c r="V26">
-        <v>-16.3</v>
+        <v>-13.9</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>940.1</v>
+        <v>30.5</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>-4.7</v>
+        <v>-5.5</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-36.5</v>
+        <v>-35.200000000000003</v>
       </c>
       <c r="D27">
-        <v>800.7</v>
+        <v>328.6</v>
       </c>
       <c r="E27">
-        <v>423.9</v>
+        <v>176.8</v>
       </c>
       <c r="F27">
-        <v>469.3</v>
+        <v>202.4</v>
       </c>
       <c r="G27">
-        <v>1123.7</v>
+        <v>469.8</v>
       </c>
       <c r="H27">
-        <v>3023.5</v>
+        <v>907.9</v>
       </c>
       <c r="I27">
-        <v>296.89999999999998</v>
+        <v>116.7</v>
       </c>
       <c r="J27">
-        <v>2664.1</v>
+        <v>1227.5</v>
       </c>
       <c r="K27">
-        <v>10.8</v>
+        <v>5.4</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-59.6</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="N27">
-        <v>708.7</v>
+        <v>565.5</v>
       </c>
       <c r="O27">
-        <v>3638.3</v>
+        <v>2037.8</v>
       </c>
       <c r="P27">
-        <v>2693</v>
+        <v>1400.3</v>
       </c>
       <c r="Q27">
-        <v>87.6</v>
+        <v>11.5</v>
       </c>
       <c r="R27">
-        <v>42735</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>-614.79999999999995</v>
+        <v>-1129.9000000000001</v>
       </c>
       <c r="U27">
-        <v>186.4</v>
+        <v>46.9</v>
       </c>
       <c r="V27">
-        <v>188.3</v>
+        <v>24.7</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-68.3</v>
+        <v>-10.4</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,81 +3006,81 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>-36.5</v>
+        <v>-35.200000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>-37.4</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>594.9</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>375.7</v>
+        <v>185.1</v>
       </c>
       <c r="F28">
-        <v>345.4</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1060.9000000000001</v>
+        <v>465.9</v>
       </c>
       <c r="H28">
-        <v>2999</v>
+        <v>893.3</v>
       </c>
       <c r="I28">
-        <v>301.89999999999998</v>
+        <v>105.6</v>
       </c>
       <c r="J28">
-        <v>2661</v>
+        <v>1273.9000000000001</v>
       </c>
       <c r="K28">
-        <v>11.4</v>
+        <v>6.1</v>
       </c>
       <c r="L28">
-        <v>-3.4</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>717.8</v>
+        <v>531.5</v>
       </c>
       <c r="O28">
-        <v>3641</v>
+        <v>2032</v>
       </c>
       <c r="P28">
-        <v>2731.4</v>
+        <v>1449.5</v>
       </c>
       <c r="Q28">
-        <v>-65.3</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>42825</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>-642</v>
+        <v>-1138.7</v>
       </c>
       <c r="U28">
-        <v>121.5</v>
+        <v>34.5</v>
       </c>
       <c r="V28">
-        <v>-85.6</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>-37.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>-36.5</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>645.70000000000005</v>
+        <v>330.8</v>
       </c>
       <c r="E29">
-        <v>389.7</v>
+        <v>178.6</v>
       </c>
       <c r="F29">
-        <v>378.5</v>
+        <v>211.1</v>
       </c>
       <c r="G29">
-        <v>1113.0999999999999</v>
+        <v>456.6</v>
       </c>
       <c r="H29">
-        <v>3062</v>
+        <v>882.4</v>
       </c>
       <c r="I29">
-        <v>344.6</v>
+        <v>101.2</v>
       </c>
       <c r="J29">
-        <v>2658.3</v>
+        <v>1290.5</v>
       </c>
       <c r="K29">
-        <v>11.8</v>
+        <v>3.1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>816.7</v>
+        <v>524.9</v>
       </c>
       <c r="O29">
-        <v>3734.4</v>
+        <v>2031.5</v>
       </c>
       <c r="P29">
-        <v>2775.6</v>
+        <v>1465.4</v>
       </c>
       <c r="Q29">
-        <v>-37.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>42916</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>-672.4</v>
+        <v>-1149.0999999999999</v>
       </c>
       <c r="U29">
-        <v>83.7</v>
+        <v>29.9</v>
       </c>
       <c r="V29">
-        <v>-53.6</v>
+        <v>0</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>-36.5</v>
+        <v>-10.4</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-32.4</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="D30">
-        <v>666.5</v>
+        <v>373.3</v>
       </c>
       <c r="E30">
-        <v>459.4</v>
+        <v>196.2</v>
       </c>
       <c r="F30">
-        <v>376</v>
+        <v>233.5</v>
       </c>
       <c r="G30">
-        <v>1199.9000000000001</v>
+        <v>476</v>
       </c>
       <c r="H30">
-        <v>3167.8</v>
+        <v>889.3</v>
       </c>
       <c r="I30">
-        <v>344.4</v>
+        <v>88.5</v>
       </c>
       <c r="J30">
-        <v>2656</v>
+        <v>1432.4</v>
       </c>
       <c r="K30">
-        <v>11.8</v>
+        <v>1.7</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,37 +3216,37 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>958.4</v>
+        <v>348.7</v>
       </c>
       <c r="O30">
-        <v>3869.7</v>
+        <v>1971.3</v>
       </c>
       <c r="P30">
-        <v>2924.6</v>
+        <v>1440.6</v>
       </c>
       <c r="Q30">
-        <v>-4.5</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="R30">
-        <v>43008</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="T30">
-        <v>-701.9</v>
+        <v>-1082</v>
       </c>
       <c r="U30">
-        <v>79.2</v>
+        <v>45.1</v>
       </c>
       <c r="V30">
-        <v>-135</v>
+        <v>51.1</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>159.30000000000001</v>
+        <v>-29.4</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,81 +3255,81 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>-32.4</v>
+        <v>40.799999999999997</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-76.900000000000006</v>
+        <v>-2.5</v>
       </c>
       <c r="D31">
-        <v>786.6</v>
+        <v>311.7</v>
       </c>
       <c r="E31">
-        <v>444.8</v>
+        <v>177.4</v>
       </c>
       <c r="F31">
-        <v>458.7</v>
+        <v>198.6</v>
       </c>
       <c r="G31">
-        <v>1143.2</v>
+        <v>467.1</v>
       </c>
       <c r="H31">
-        <v>3056.9</v>
+        <v>882.6</v>
       </c>
       <c r="I31">
-        <v>336.9</v>
+        <v>96.5</v>
       </c>
       <c r="J31">
-        <v>2653.7</v>
+        <v>1424.5</v>
       </c>
       <c r="K31">
-        <v>12.4</v>
+        <v>3.1</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-175.9</v>
       </c>
       <c r="N31">
-        <v>932.3</v>
+        <v>356.5</v>
       </c>
       <c r="O31">
-        <v>3827.3</v>
+        <v>1972.9</v>
       </c>
       <c r="P31">
-        <v>2836.3</v>
+        <v>1436.3</v>
       </c>
       <c r="Q31">
-        <v>8.1999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="R31">
-        <v>43100</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>7800</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>-770.4</v>
+        <v>-1090.3</v>
       </c>
       <c r="U31">
-        <v>87.1</v>
+        <v>56.8</v>
       </c>
       <c r="V31">
-        <v>134.9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-89.8</v>
+        <v>-5.2</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,81 +3338,81 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>-76.900000000000006</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-90.3</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D32">
-        <v>560.70000000000005</v>
+        <v>366.5</v>
       </c>
       <c r="E32">
-        <v>381.1</v>
+        <v>192.7</v>
       </c>
       <c r="F32">
-        <v>318.10000000000002</v>
+        <v>242</v>
       </c>
       <c r="G32">
-        <v>1114.3</v>
+        <v>472.5</v>
       </c>
       <c r="H32">
-        <v>3042.1</v>
+        <v>883.7</v>
       </c>
       <c r="I32">
-        <v>345.4</v>
+        <v>103.4</v>
       </c>
       <c r="J32">
-        <v>2651.5</v>
+        <v>1391.6</v>
       </c>
       <c r="K32">
-        <v>10.8</v>
+        <v>2.7</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>1009</v>
+        <v>362.7</v>
       </c>
       <c r="O32">
-        <v>3897.8</v>
+        <v>1946.7</v>
       </c>
       <c r="P32">
-        <v>2916.6</v>
+        <v>1403</v>
       </c>
       <c r="Q32">
-        <v>-30.9</v>
+        <v>-25</v>
       </c>
       <c r="R32">
-        <v>43190</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>-855.7</v>
+        <v>-1063</v>
       </c>
       <c r="U32">
-        <v>55.7</v>
+        <v>31.2</v>
       </c>
       <c r="V32">
-        <v>-97.3</v>
+        <v>11.8</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>77.2</v>
+        <v>-35</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>-90.3</v>
+        <v>19.899999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>-122.5</v>
+        <v>29.2</v>
       </c>
       <c r="D33">
-        <v>606.79999999999995</v>
+        <v>334.4</v>
       </c>
       <c r="E33">
-        <v>381.9</v>
+        <v>176.2</v>
       </c>
       <c r="F33">
-        <v>347.2</v>
+        <v>207.6</v>
       </c>
       <c r="G33">
-        <v>1194.8</v>
+        <v>481.7</v>
       </c>
       <c r="H33">
-        <v>3091.9</v>
+        <v>876.6</v>
       </c>
       <c r="I33">
-        <v>338</v>
+        <v>100.9</v>
       </c>
       <c r="J33">
-        <v>2649.3</v>
+        <v>1215.5</v>
       </c>
       <c r="K33">
-        <v>29.8</v>
+        <v>2.1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3465,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1188.0999999999999</v>
+        <v>473.6</v>
       </c>
       <c r="O33">
-        <v>4072.6</v>
+        <v>1875.9</v>
       </c>
       <c r="P33">
-        <v>3067.1</v>
+        <v>1333.2</v>
       </c>
       <c r="Q33">
-        <v>25.8</v>
+        <v>38.6</v>
       </c>
       <c r="R33">
-        <v>43281</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>-980.7</v>
+        <v>-999.3</v>
       </c>
       <c r="U33">
-        <v>81.599999999999994</v>
+        <v>66.2</v>
       </c>
       <c r="V33">
-        <v>-92.8</v>
+        <v>12.3</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>139.69999999999999</v>
+        <v>-73.5</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,42 +3504,42 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>-122.5</v>
+        <v>29.2</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D34">
-        <v>655.4</v>
+        <v>334.2</v>
       </c>
       <c r="E34">
-        <v>441.6</v>
+        <v>169.9</v>
       </c>
       <c r="F34">
-        <v>350.4</v>
+        <v>207.7</v>
       </c>
       <c r="G34">
-        <v>1262.2</v>
+        <v>428.5</v>
       </c>
       <c r="H34">
-        <v>3188.3</v>
+        <v>813.4</v>
       </c>
       <c r="I34">
-        <v>363.2</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="J34">
-        <v>2731.4</v>
+        <v>1311.2</v>
       </c>
       <c r="K34">
-        <v>21.4</v>
+        <v>0.5</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,37 +3548,37 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1216.5</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="O34">
-        <v>4176.5</v>
+        <v>1926.2</v>
       </c>
       <c r="P34">
-        <v>3173.1</v>
+        <v>1336.1</v>
       </c>
       <c r="Q34">
-        <v>-19.8</v>
+        <v>-13.4</v>
       </c>
       <c r="R34">
-        <v>43373</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="T34">
-        <v>-988.2</v>
+        <v>-1112.8</v>
       </c>
       <c r="U34">
-        <v>61.8</v>
+        <v>52.8</v>
       </c>
       <c r="V34">
-        <v>-106.6</v>
+        <v>-12</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>99.7</v>
+        <v>1.4</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3467,208 +3587,208 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>-11.1</v>
+        <v>11.3</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-70.3</v>
+        <v>12.7</v>
       </c>
       <c r="D35">
-        <v>741.6</v>
+        <v>303.3</v>
       </c>
       <c r="E35">
-        <v>431.3</v>
+        <v>161.1</v>
       </c>
       <c r="F35">
-        <v>431.8</v>
+        <v>192.3</v>
       </c>
       <c r="G35">
-        <v>1193.8</v>
+        <v>404.8</v>
       </c>
       <c r="H35">
-        <v>3016.8</v>
+        <v>784.7</v>
       </c>
       <c r="I35">
-        <v>332.1</v>
+        <v>89.2</v>
       </c>
       <c r="J35">
-        <v>2727.7</v>
+        <v>1290.5999999999999</v>
       </c>
       <c r="K35">
-        <v>9.3000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="N35">
-        <v>1120.4000000000001</v>
+        <v>300.89999999999998</v>
       </c>
       <c r="O35">
-        <v>4073.6</v>
+        <v>1879.8</v>
       </c>
       <c r="P35">
-        <v>3087.7</v>
+        <v>1291.7</v>
       </c>
       <c r="Q35">
-        <v>25</v>
+        <v>-19.3</v>
       </c>
       <c r="R35">
-        <v>43465</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>-1056.8</v>
+        <v>-1095.0999999999999</v>
       </c>
       <c r="U35">
-        <v>87.3</v>
+        <v>33.5</v>
       </c>
       <c r="V35">
-        <v>125.9</v>
+        <v>17.2</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-83.5</v>
+        <v>-35.299999999999997</v>
       </c>
       <c r="Y35">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>-70.3</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>-75.099999999999994</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <v>553.20000000000005</v>
+        <v>321.8</v>
       </c>
       <c r="E36">
-        <v>378.5</v>
+        <v>184</v>
       </c>
       <c r="F36">
-        <v>315.39999999999998</v>
+        <v>201.2</v>
       </c>
       <c r="G36">
-        <v>1141.2</v>
+        <v>414.1</v>
       </c>
       <c r="H36">
-        <v>3041.7</v>
+        <v>797.4</v>
       </c>
       <c r="I36">
-        <v>355.7</v>
+        <v>85.2</v>
       </c>
       <c r="J36">
-        <v>2723.9</v>
+        <v>1264.7</v>
       </c>
       <c r="K36">
-        <v>8.6</v>
+        <v>0.8</v>
       </c>
       <c r="L36">
-        <v>-17.2</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>1131.9000000000001</v>
+        <v>326.39999999999998</v>
       </c>
       <c r="O36">
-        <v>4173.8999999999996</v>
+        <v>1871.5</v>
       </c>
       <c r="P36">
-        <v>3238.3</v>
+        <v>1282.2</v>
       </c>
       <c r="Q36">
-        <v>-17.7</v>
+        <v>-6.3</v>
       </c>
       <c r="R36">
-        <v>43555</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>-1132.2</v>
+        <v>-1074.0999999999999</v>
       </c>
       <c r="U36">
-        <v>68.3</v>
+        <v>27.2</v>
       </c>
       <c r="V36">
-        <v>-28.4</v>
+        <v>0.6</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>16.2</v>
+        <v>-5.5</v>
       </c>
       <c r="Y36">
-        <v>98.5</v>
+        <v>0</v>
       </c>
       <c r="Z36">
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>-75.099999999999994</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-63.7</v>
+        <v>23.1</v>
       </c>
       <c r="D37">
-        <v>570.20000000000005</v>
+        <v>326.2</v>
       </c>
       <c r="E37">
-        <v>389.3</v>
+        <v>169</v>
       </c>
       <c r="F37">
-        <v>326.3</v>
+        <v>208.3</v>
       </c>
       <c r="G37">
-        <v>1176.3</v>
+        <v>420.6</v>
       </c>
       <c r="H37">
-        <v>3066</v>
+        <v>802</v>
       </c>
       <c r="I37">
-        <v>393.9</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="J37">
-        <v>2723.1</v>
+        <v>1254.8</v>
       </c>
       <c r="K37">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1210.2</v>
+        <v>315.2</v>
       </c>
       <c r="O37">
-        <v>4253.2</v>
+        <v>1845.4</v>
       </c>
       <c r="P37">
-        <v>3251.4</v>
+        <v>1275.7</v>
       </c>
       <c r="Q37">
-        <v>-6.6</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="R37">
-        <v>43646</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>-1187.2</v>
+        <v>-1043.4000000000001</v>
       </c>
       <c r="U37">
-        <v>63</v>
+        <v>62.5</v>
       </c>
       <c r="V37">
-        <v>-12.8</v>
+        <v>59.6</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>12.4</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="Y37">
-        <v>94.7</v>
+        <v>0</v>
       </c>
       <c r="Z37">
         <v>0</v>
       </c>
       <c r="AA37">
-        <v>-63.7</v>
+        <v>23.1</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>-44.7</v>
+        <v>12.8</v>
       </c>
       <c r="D38">
-        <v>596.79999999999995</v>
+        <v>344.6</v>
       </c>
       <c r="E38">
-        <v>454.9</v>
+        <v>181.7</v>
       </c>
       <c r="F38">
-        <v>327.8</v>
+        <v>219.4</v>
       </c>
       <c r="G38">
-        <v>1193.5</v>
+        <v>403.6</v>
       </c>
       <c r="H38">
-        <v>3059.5</v>
+        <v>794.2</v>
       </c>
       <c r="I38">
-        <v>322.3</v>
+        <v>82.4</v>
       </c>
       <c r="J38">
-        <v>2906.6</v>
+        <v>1234.2</v>
       </c>
       <c r="K38">
-        <v>5.0999999999999996</v>
+        <v>0.3</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,247 +3880,247 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1059.2</v>
+        <v>309.3</v>
       </c>
       <c r="O38">
-        <v>4287</v>
+        <v>1827.8</v>
       </c>
       <c r="P38">
-        <v>3382.6</v>
+        <v>1249.9000000000001</v>
       </c>
       <c r="Q38">
-        <v>-2.2999999999999998</v>
+        <v>-8</v>
       </c>
       <c r="R38">
-        <v>43738</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="T38">
-        <v>-1227.5</v>
+        <v>-1033.5999999999999</v>
       </c>
       <c r="U38">
-        <v>60.7</v>
+        <v>54.5</v>
       </c>
       <c r="V38">
-        <v>-125.6</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>133</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="Y38">
-        <v>92.8</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>-44.7</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43830</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>25.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D39">
-        <v>699.4</v>
+        <v>305.5</v>
       </c>
       <c r="E39">
-        <v>423.4</v>
+        <v>167.5</v>
       </c>
       <c r="F39">
-        <v>398.6</v>
+        <v>196.8</v>
       </c>
       <c r="G39">
-        <v>1111.4000000000001</v>
+        <v>371.2</v>
       </c>
       <c r="H39">
-        <v>2980.6</v>
+        <v>765.8</v>
       </c>
       <c r="I39">
-        <v>251.8</v>
+        <v>73.5</v>
       </c>
       <c r="J39">
-        <v>2906.2</v>
+        <v>1211</v>
       </c>
       <c r="K39">
+        <v>2.1</v>
+      </c>
+      <c r="L39">
+        <v>-13</v>
+      </c>
+      <c r="M39">
+        <v>-815</v>
+      </c>
+      <c r="N39">
+        <v>307.3</v>
+      </c>
+      <c r="O39">
+        <v>1793</v>
+      </c>
+      <c r="P39">
+        <v>1232.5</v>
+      </c>
+      <c r="Q39">
+        <v>-18.7</v>
+      </c>
+      <c r="R39">
+        <v>40268</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>-1027.2</v>
+      </c>
+      <c r="U39">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="V39">
+        <v>31.2</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>-47.1</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>956.9</v>
-      </c>
-      <c r="O39">
-        <v>4201.8</v>
-      </c>
-      <c r="P39">
-        <v>3304.2</v>
-      </c>
-      <c r="Q39">
-        <v>43.6</v>
-      </c>
-      <c r="R39">
-        <v>43830</v>
-      </c>
-      <c r="S39">
-        <v>7100</v>
-      </c>
-      <c r="T39">
-        <v>-1221.2</v>
-      </c>
-      <c r="U39">
-        <v>104.3</v>
-      </c>
-      <c r="V39">
-        <v>98.5</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>-77.3</v>
-      </c>
-      <c r="Y39">
-        <v>93.3</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>25.8</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-213.9</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>453</v>
+        <v>327.7</v>
       </c>
       <c r="E40">
-        <v>326.5</v>
+        <v>172.1</v>
       </c>
       <c r="F40">
-        <v>255.2</v>
+        <v>220.7</v>
       </c>
       <c r="G40">
-        <v>1038.9000000000001</v>
+        <v>385.8</v>
       </c>
       <c r="H40">
-        <v>2779.6</v>
+        <v>776.3</v>
       </c>
       <c r="I40">
-        <v>253.3</v>
+        <v>88.7</v>
       </c>
       <c r="J40">
-        <v>2405.5</v>
+        <v>1209.8</v>
       </c>
       <c r="K40">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="L40">
-        <v>-6.4</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>-4.5</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>1486.4</v>
+        <v>308.89999999999998</v>
       </c>
       <c r="O40">
-        <v>4215.3999999999996</v>
+        <v>1788.1</v>
       </c>
       <c r="P40">
-        <v>3374.3</v>
+        <v>1223.5</v>
       </c>
       <c r="Q40">
-        <v>-25.3</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>43921</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>-1435.8</v>
+        <v>-1011.8</v>
       </c>
       <c r="U40">
-        <v>62.8</v>
+        <v>38.6</v>
       </c>
       <c r="V40">
-        <v>-77.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>57.4</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>89.6</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-213.9</v>
+        <v>16.399999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-126.8</v>
+        <v>12.5</v>
       </c>
       <c r="D41">
-        <v>347.6</v>
+        <v>319</v>
       </c>
       <c r="E41">
-        <v>288.3</v>
+        <v>172.9</v>
       </c>
       <c r="F41">
-        <v>179</v>
+        <v>208.6</v>
       </c>
       <c r="G41">
-        <v>1282.9000000000001</v>
+        <v>404.3</v>
       </c>
       <c r="H41">
-        <v>2999.3</v>
+        <v>794.8</v>
       </c>
       <c r="I41">
-        <v>224.6</v>
+        <v>89.9</v>
       </c>
       <c r="J41">
-        <v>2975.8</v>
+        <v>1208.5999999999999</v>
       </c>
       <c r="K41">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,129 +4129,3449 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1254</v>
+        <v>317.39999999999998</v>
       </c>
       <c r="O41">
-        <v>4547.8</v>
+        <v>1786.6</v>
       </c>
       <c r="P41">
-        <v>3732.3</v>
+        <v>1223.0999999999999</v>
       </c>
       <c r="Q41">
-        <v>264.7</v>
+        <v>1.9</v>
       </c>
       <c r="R41">
-        <v>44012</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>-1548.5</v>
+        <v>-991.8</v>
       </c>
       <c r="U41">
-        <v>338.5</v>
+        <v>40.5</v>
       </c>
       <c r="V41">
-        <v>-86.6</v>
+        <v>9.5</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>351</v>
+        <v>-5.2</v>
       </c>
       <c r="Y41">
-        <v>85.9</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-126.8</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44104</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>296.2</v>
+      </c>
+      <c r="D42">
+        <v>369.2</v>
+      </c>
+      <c r="E42">
+        <v>197.5</v>
+      </c>
+      <c r="F42">
+        <v>240</v>
+      </c>
+      <c r="G42">
+        <v>476.1</v>
+      </c>
+      <c r="H42">
+        <v>1086.7</v>
+      </c>
+      <c r="I42">
+        <v>88.3</v>
+      </c>
+      <c r="J42">
+        <v>1207.4000000000001</v>
+      </c>
+      <c r="K42">
+        <v>3.7</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>318.5</v>
+      </c>
+      <c r="O42">
+        <v>1783.1</v>
+      </c>
+      <c r="P42">
+        <v>1219.0999999999999</v>
+      </c>
+      <c r="Q42">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>4900</v>
+      </c>
+      <c r="T42">
+        <v>-696.4</v>
+      </c>
+      <c r="U42">
+        <v>76.7</v>
+      </c>
+      <c r="V42">
+        <v>47.2</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>296.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>10.4</v>
+      </c>
+      <c r="D43">
+        <v>333.2</v>
+      </c>
+      <c r="E43">
+        <v>182.4</v>
+      </c>
+      <c r="F43">
+        <v>219.9</v>
+      </c>
+      <c r="G43">
+        <v>468.9</v>
+      </c>
+      <c r="H43">
+        <v>1105.5</v>
+      </c>
+      <c r="I43">
+        <v>98.1</v>
+      </c>
+      <c r="J43">
+        <v>1206.2</v>
+      </c>
+      <c r="K43">
+        <v>6.4</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-2</v>
+      </c>
+      <c r="N43">
+        <v>336.2</v>
+      </c>
+      <c r="O43">
+        <v>1792</v>
+      </c>
+      <c r="P43">
+        <v>1220.5999999999999</v>
+      </c>
+      <c r="Q43">
+        <v>-15.5</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>-686.5</v>
+      </c>
+      <c r="U43">
+        <v>61.2</v>
+      </c>
+      <c r="V43">
+        <v>24.1</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>2</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>351.2</v>
+      </c>
+      <c r="E44">
+        <v>185.7</v>
+      </c>
+      <c r="F44">
+        <v>229.3</v>
+      </c>
+      <c r="G44">
+        <v>465.2</v>
+      </c>
+      <c r="H44">
+        <v>1100</v>
+      </c>
+      <c r="I44">
+        <v>103</v>
+      </c>
+      <c r="J44">
+        <v>1216.8</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="O44">
+        <v>1777.5</v>
+      </c>
+      <c r="P44">
+        <v>1243.8</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>-677.5</v>
+      </c>
+      <c r="U44">
+        <v>44.9</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0.1</v>
+      </c>
+      <c r="D45">
+        <v>337.2</v>
+      </c>
+      <c r="E45">
+        <v>185.5</v>
+      </c>
+      <c r="F45">
+        <v>214.1</v>
+      </c>
+      <c r="G45">
+        <v>472.5</v>
+      </c>
+      <c r="H45">
+        <v>1081.7</v>
+      </c>
+      <c r="I45">
+        <v>93.2</v>
+      </c>
+      <c r="J45">
+        <v>1215.3</v>
+      </c>
+      <c r="K45">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>323.89999999999998</v>
+      </c>
+      <c r="O45">
+        <v>1766.8</v>
+      </c>
+      <c r="P45">
+        <v>1232.5</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>-685.1</v>
+      </c>
+      <c r="U45">
+        <v>49.9</v>
+      </c>
+      <c r="V45">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-6.4</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>36.4</v>
+      </c>
+      <c r="D46">
+        <v>359.8</v>
+      </c>
+      <c r="E46">
+        <v>212</v>
+      </c>
+      <c r="F46">
+        <v>225.5</v>
+      </c>
+      <c r="G46">
+        <v>518.70000000000005</v>
+      </c>
+      <c r="H46">
+        <v>1157.0999999999999</v>
+      </c>
+      <c r="I46">
+        <v>89.8</v>
+      </c>
+      <c r="J46">
+        <v>1213.8</v>
+      </c>
+      <c r="K46">
+        <v>5.9</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>335.4</v>
+      </c>
+      <c r="O46">
+        <v>1850</v>
+      </c>
+      <c r="P46">
+        <v>1227.7</v>
+      </c>
+      <c r="Q46">
+        <v>51.8</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>5200</v>
+      </c>
+      <c r="T46">
+        <v>-692.9</v>
+      </c>
+      <c r="U46">
+        <v>101.7</v>
+      </c>
+      <c r="V46">
+        <v>67.8</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-12.1</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>8.5</v>
+      </c>
+      <c r="D47">
+        <v>330.7</v>
+      </c>
+      <c r="E47">
+        <v>190</v>
+      </c>
+      <c r="F47">
+        <v>215</v>
+      </c>
+      <c r="G47">
+        <v>512.4</v>
+      </c>
+      <c r="H47">
+        <v>1156.7</v>
+      </c>
+      <c r="I47">
+        <v>92.8</v>
+      </c>
+      <c r="J47">
+        <v>1212.3</v>
+      </c>
+      <c r="K47">
+        <v>8.5</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-2</v>
+      </c>
+      <c r="N47">
+        <v>327.5</v>
+      </c>
+      <c r="O47">
+        <v>1836.3</v>
+      </c>
+      <c r="P47">
+        <v>1228.8</v>
+      </c>
+      <c r="Q47">
+        <v>-14.2</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>-679.6</v>
+      </c>
+      <c r="U47">
+        <v>87.5</v>
+      </c>
+      <c r="V47">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>9.1</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>357.1</v>
+      </c>
+      <c r="E48">
+        <v>204.5</v>
+      </c>
+      <c r="F48">
+        <v>232.7</v>
+      </c>
+      <c r="G48">
+        <v>534.1</v>
+      </c>
+      <c r="H48">
+        <v>1173.9000000000001</v>
+      </c>
+      <c r="I48">
+        <v>95.5</v>
+      </c>
+      <c r="J48">
+        <v>1207.4000000000001</v>
+      </c>
+      <c r="K48">
+        <v>8.5</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>356.3</v>
+      </c>
+      <c r="O48">
+        <v>1839.5</v>
+      </c>
+      <c r="P48">
+        <v>1227.3</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-665.6</v>
+      </c>
+      <c r="U48">
+        <v>79.8</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>-15</v>
+      </c>
+      <c r="D49">
+        <v>347</v>
+      </c>
+      <c r="E49">
+        <v>195.7</v>
+      </c>
+      <c r="F49">
+        <v>221.1</v>
+      </c>
+      <c r="G49">
+        <v>490.2</v>
+      </c>
+      <c r="H49">
+        <v>1183.5999999999999</v>
+      </c>
+      <c r="I49">
+        <v>102.7</v>
+      </c>
+      <c r="J49">
+        <v>1209.0999999999999</v>
+      </c>
+      <c r="K49">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>385.5</v>
+      </c>
+      <c r="O49">
+        <v>1864.3</v>
+      </c>
+      <c r="P49">
+        <v>1225.4000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>-34.6</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>-680.7</v>
+      </c>
+      <c r="U49">
+        <v>45.2</v>
+      </c>
+      <c r="V49">
+        <v>39.6</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-2.8</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>46.5</v>
+      </c>
+      <c r="D50">
+        <v>361.6</v>
+      </c>
+      <c r="E50">
+        <v>216</v>
+      </c>
+      <c r="F50">
+        <v>235</v>
+      </c>
+      <c r="G50">
+        <v>541.20000000000005</v>
+      </c>
+      <c r="H50">
+        <v>1236.5999999999999</v>
+      </c>
+      <c r="I50">
+        <v>101.9</v>
+      </c>
+      <c r="J50">
+        <v>1145.8</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>453.1</v>
+      </c>
+      <c r="O50">
+        <v>1885.9</v>
+      </c>
+      <c r="P50">
+        <v>1220.7</v>
+      </c>
+      <c r="Q50">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>5100</v>
+      </c>
+      <c r="T50">
+        <v>-649.29999999999995</v>
+      </c>
+      <c r="U50">
+        <v>116.3</v>
+      </c>
+      <c r="V50">
+        <v>86.2</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-9.1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-6.9</v>
+      </c>
+      <c r="D51">
+        <v>325.89999999999998</v>
+      </c>
+      <c r="E51">
+        <v>185.9</v>
+      </c>
+      <c r="F51">
+        <v>211.5</v>
+      </c>
+      <c r="G51">
+        <v>539.4</v>
+      </c>
+      <c r="H51">
+        <v>1241.9000000000001</v>
+      </c>
+      <c r="I51">
+        <v>112.1</v>
+      </c>
+      <c r="J51">
+        <v>1227.5999999999999</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-443</v>
+      </c>
+      <c r="N51">
+        <v>386.5</v>
+      </c>
+      <c r="O51">
+        <v>1897</v>
+      </c>
+      <c r="P51">
+        <v>1281.0999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>4.5</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>-655.1</v>
+      </c>
+      <c r="U51">
+        <v>120.8</v>
+      </c>
+      <c r="V51">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>28.7</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>24.7</v>
+      </c>
+      <c r="D52">
+        <v>344.7</v>
+      </c>
+      <c r="E52">
+        <v>185.5</v>
+      </c>
+      <c r="F52">
+        <v>222.3</v>
+      </c>
+      <c r="G52">
+        <v>577.9</v>
+      </c>
+      <c r="H52">
+        <v>1269.7</v>
+      </c>
+      <c r="I52">
+        <v>108.2</v>
+      </c>
+      <c r="J52">
+        <v>1227.9000000000001</v>
+      </c>
+      <c r="K52">
+        <v>5.2</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>397.3</v>
+      </c>
+      <c r="O52">
+        <v>1902.1</v>
+      </c>
+      <c r="P52">
+        <v>1281.5999999999999</v>
+      </c>
+      <c r="Q52">
+        <v>20.5</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>-632.4</v>
+      </c>
+      <c r="U52">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="V52">
+        <v>28.2</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>9.5</v>
+      </c>
+      <c r="D53">
+        <v>333.1</v>
+      </c>
+      <c r="E53">
+        <v>194.1</v>
+      </c>
+      <c r="F53">
+        <v>212</v>
+      </c>
+      <c r="G53">
+        <v>577</v>
+      </c>
+      <c r="H53">
+        <v>1259.4000000000001</v>
+      </c>
+      <c r="I53">
+        <v>103.4</v>
+      </c>
+      <c r="J53">
+        <v>1228.2</v>
+      </c>
+      <c r="K53">
+        <v>6.6</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>384.6</v>
+      </c>
+      <c r="O53">
+        <v>1879.2</v>
+      </c>
+      <c r="P53">
+        <v>1283.4000000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-2</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>-619.79999999999995</v>
+      </c>
+      <c r="U53">
+        <v>139.30000000000001</v>
+      </c>
+      <c r="V53">
+        <v>-5.5</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-7</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>-33.1</v>
+      </c>
+      <c r="D54">
+        <v>491</v>
+      </c>
+      <c r="E54">
+        <v>253.5</v>
+      </c>
+      <c r="F54">
+        <v>312.5</v>
+      </c>
+      <c r="G54">
+        <v>799.1</v>
+      </c>
+      <c r="H54">
+        <v>2016.9</v>
+      </c>
+      <c r="I54">
+        <v>165.7</v>
+      </c>
+      <c r="J54">
+        <v>1862.3</v>
+      </c>
+      <c r="K54">
+        <v>7.9</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>552.70000000000005</v>
+      </c>
+      <c r="O54">
+        <v>2613.4</v>
+      </c>
+      <c r="P54">
+        <v>1935.6</v>
+      </c>
+      <c r="Q54">
+        <v>104.8</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>5960</v>
+      </c>
+      <c r="T54">
+        <v>-596.5</v>
+      </c>
+      <c r="U54">
+        <v>244.1</v>
+      </c>
+      <c r="V54">
+        <v>117.5</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>626.29999999999995</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>-33.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>5.5</v>
+      </c>
+      <c r="D55">
+        <v>469.8</v>
+      </c>
+      <c r="E55">
+        <v>265.5</v>
+      </c>
+      <c r="F55">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="G55">
+        <v>783.8</v>
+      </c>
+      <c r="H55">
+        <v>2105.1</v>
+      </c>
+      <c r="I55">
+        <v>185.6</v>
+      </c>
+      <c r="J55">
+        <v>1861.3</v>
+      </c>
+      <c r="K55">
+        <v>11.8</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1.8</v>
+      </c>
+      <c r="N55">
+        <v>534.9</v>
+      </c>
+      <c r="O55">
+        <v>2694.1</v>
+      </c>
+      <c r="P55">
+        <v>1938.5</v>
+      </c>
+      <c r="Q55">
+        <v>-47.8</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>-589</v>
+      </c>
+      <c r="U55">
+        <v>196.3</v>
+      </c>
+      <c r="V55">
+        <v>-45.5</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D56">
+        <v>497.9</v>
+      </c>
+      <c r="E56">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="F56">
+        <v>330.8</v>
+      </c>
+      <c r="G56">
+        <v>742.6</v>
+      </c>
+      <c r="H56">
+        <v>1938.7</v>
+      </c>
+      <c r="I56">
+        <v>172.9</v>
+      </c>
+      <c r="J56">
+        <v>1862</v>
+      </c>
+      <c r="K56">
+        <v>13</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>467.3</v>
+      </c>
+      <c r="O56">
+        <v>2510.5</v>
+      </c>
+      <c r="P56">
+        <v>1882</v>
+      </c>
+      <c r="Q56">
+        <v>-38.6</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>-571.79999999999995</v>
+      </c>
+      <c r="U56">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="V56">
+        <v>39.1</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-59.9</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>14.6</v>
+      </c>
+      <c r="D57">
+        <v>472.3</v>
+      </c>
+      <c r="E57">
+        <v>256</v>
+      </c>
+      <c r="F57">
+        <v>307.8</v>
+      </c>
+      <c r="G57">
+        <v>744.9</v>
+      </c>
+      <c r="H57">
+        <v>1912.6</v>
+      </c>
+      <c r="I57">
+        <v>167.7</v>
+      </c>
+      <c r="J57">
+        <v>1858.5</v>
+      </c>
+      <c r="K57">
+        <v>7.9</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>444</v>
+      </c>
+      <c r="O57">
+        <v>2483.1999999999998</v>
+      </c>
+      <c r="P57">
+        <v>1873.4</v>
+      </c>
+      <c r="Q57">
+        <v>20.7</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>-570.6</v>
+      </c>
+      <c r="U57">
+        <v>178.4</v>
+      </c>
+      <c r="V57">
+        <v>53.1</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-13</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>2.7</v>
+      </c>
+      <c r="D58">
+        <v>501</v>
+      </c>
+      <c r="E58">
+        <v>238.9</v>
+      </c>
+      <c r="F58">
+        <v>328.4</v>
+      </c>
+      <c r="G58">
+        <v>773.8</v>
+      </c>
+      <c r="H58">
+        <v>1944.1</v>
+      </c>
+      <c r="I58">
+        <v>153.5</v>
+      </c>
+      <c r="J58">
+        <v>1833.8</v>
+      </c>
+      <c r="K58">
+        <v>6.6</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>464.9</v>
+      </c>
+      <c r="O58">
+        <v>2588.1999999999998</v>
+      </c>
+      <c r="P58">
+        <v>1871.9</v>
+      </c>
+      <c r="Q58">
+        <v>96.9</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>5600</v>
+      </c>
+      <c r="T58">
+        <v>-644.1</v>
+      </c>
+      <c r="U58">
+        <v>275.3</v>
+      </c>
+      <c r="V58">
+        <v>127.3</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-0.9</v>
+      </c>
+      <c r="D59">
+        <v>438.5</v>
+      </c>
+      <c r="E59">
+        <v>231.8</v>
+      </c>
+      <c r="F59">
+        <v>296.2</v>
+      </c>
+      <c r="G59">
+        <v>735.5</v>
+      </c>
+      <c r="H59">
+        <v>1873.7</v>
+      </c>
+      <c r="I59">
+        <v>166.8</v>
+      </c>
+      <c r="J59">
+        <v>1834.3</v>
+      </c>
+      <c r="K59">
+        <v>6.4</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-26.3</v>
+      </c>
+      <c r="N59">
+        <v>420.4</v>
+      </c>
+      <c r="O59">
+        <v>2532.6</v>
+      </c>
+      <c r="P59">
+        <v>1847.6</v>
+      </c>
+      <c r="Q59">
+        <v>-67.099999999999994</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>-658.9</v>
+      </c>
+      <c r="U59">
+        <v>208.2</v>
+      </c>
+      <c r="V59">
+        <v>-25.6</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-25.8</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+      <c r="D60">
+        <v>482.4</v>
+      </c>
+      <c r="E60">
+        <v>256.39999999999998</v>
+      </c>
+      <c r="F60">
+        <v>321.7</v>
+      </c>
+      <c r="G60">
+        <v>772.7</v>
+      </c>
+      <c r="H60">
+        <v>1926.6</v>
+      </c>
+      <c r="I60">
+        <v>189</v>
+      </c>
+      <c r="J60">
+        <v>1832.5</v>
+      </c>
+      <c r="K60">
+        <v>8.5</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>450.6</v>
+      </c>
+      <c r="O60">
+        <v>2555.8000000000002</v>
+      </c>
+      <c r="P60">
+        <v>1847.9</v>
+      </c>
+      <c r="Q60">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>-629.20000000000005</v>
+      </c>
+      <c r="U60">
+        <v>199</v>
+      </c>
+      <c r="V60">
+        <v>28.1</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>6.2</v>
+      </c>
+      <c r="D61">
+        <v>471.5</v>
+      </c>
+      <c r="E61">
+        <v>260.39999999999998</v>
+      </c>
+      <c r="F61">
+        <v>303.60000000000002</v>
+      </c>
+      <c r="G61">
+        <v>780.5</v>
+      </c>
+      <c r="H61">
+        <v>1924.5</v>
+      </c>
+      <c r="I61">
+        <v>182.8</v>
+      </c>
+      <c r="J61">
+        <v>1832.3</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>446.1</v>
+      </c>
+      <c r="O61">
+        <v>2547.8000000000002</v>
+      </c>
+      <c r="P61">
+        <v>1849.2</v>
+      </c>
+      <c r="Q61">
+        <v>-17.8</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>-623.29999999999995</v>
+      </c>
+      <c r="U61">
+        <v>181.2</v>
+      </c>
+      <c r="V61">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>24.8</v>
+      </c>
+      <c r="D62">
+        <v>521.9</v>
+      </c>
+      <c r="E62">
+        <v>244.9</v>
+      </c>
+      <c r="F62">
+        <v>336.4</v>
+      </c>
+      <c r="G62">
+        <v>808.9</v>
+      </c>
+      <c r="H62">
+        <v>1967.3</v>
+      </c>
+      <c r="I62">
+        <v>201.3</v>
+      </c>
+      <c r="J62">
+        <v>1786.2</v>
+      </c>
+      <c r="K62">
+        <v>11.3</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>515</v>
+      </c>
+      <c r="O62">
+        <v>2554.8000000000002</v>
+      </c>
+      <c r="P62">
+        <v>1827.5</v>
+      </c>
+      <c r="Q62">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>5700</v>
+      </c>
+      <c r="T62">
+        <v>-587.5</v>
+      </c>
+      <c r="U62">
+        <v>326.89999999999998</v>
+      </c>
+      <c r="V62">
+        <v>157.9</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>16.3</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>11</v>
+      </c>
+      <c r="D63">
+        <v>439.6</v>
+      </c>
+      <c r="E63">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="F63">
+        <v>285.7</v>
+      </c>
+      <c r="G63">
+        <v>731.3</v>
+      </c>
+      <c r="H63">
+        <v>1887.7</v>
+      </c>
+      <c r="I63">
+        <v>178.4</v>
+      </c>
+      <c r="J63">
+        <v>1787.5</v>
+      </c>
+      <c r="K63">
+        <v>11.8</v>
+      </c>
+      <c r="L63">
+        <v>-10.6</v>
+      </c>
+      <c r="M63">
+        <v>-24.9</v>
+      </c>
+      <c r="N63">
+        <v>422.8</v>
+      </c>
+      <c r="O63">
+        <v>2461</v>
+      </c>
+      <c r="P63">
+        <v>1806.1</v>
+      </c>
+      <c r="Q63">
+        <v>-144.69999999999999</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>-573.29999999999995</v>
+      </c>
+      <c r="U63">
+        <v>182.2</v>
+      </c>
+      <c r="V63">
+        <v>-99.8</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-39</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D64">
+        <v>488.9</v>
+      </c>
+      <c r="E64">
+        <v>268.39999999999998</v>
+      </c>
+      <c r="F64">
+        <v>317.5</v>
+      </c>
+      <c r="G64">
+        <v>738.1</v>
+      </c>
+      <c r="H64">
+        <v>1914.8</v>
+      </c>
+      <c r="I64">
+        <v>187.6</v>
+      </c>
+      <c r="J64">
+        <v>1787</v>
+      </c>
+      <c r="K64">
+        <v>14.1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>441.9</v>
+      </c>
+      <c r="O64">
+        <v>2476.5</v>
+      </c>
+      <c r="P64">
+        <v>1807.9</v>
+      </c>
+      <c r="Q64">
+        <v>3.6</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>-561.70000000000005</v>
+      </c>
+      <c r="U64">
+        <v>185.8</v>
+      </c>
+      <c r="V64">
+        <v>47.9</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-2.9</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>-4.7</v>
+      </c>
+      <c r="D65">
+        <v>604.79999999999995</v>
+      </c>
+      <c r="E65">
+        <v>484.2</v>
+      </c>
+      <c r="F65">
+        <v>365.8</v>
+      </c>
+      <c r="G65">
+        <v>1205.3</v>
+      </c>
+      <c r="H65">
+        <v>3113.7</v>
+      </c>
+      <c r="I65">
+        <v>307.89999999999998</v>
+      </c>
+      <c r="J65">
+        <v>2668.4</v>
+      </c>
+      <c r="K65">
+        <v>11.7</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>747.9</v>
+      </c>
+      <c r="O65">
+        <v>3673.3</v>
+      </c>
+      <c r="P65">
+        <v>2767.6</v>
+      </c>
+      <c r="Q65">
+        <v>-86.6</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>-559.6</v>
+      </c>
+      <c r="U65">
+        <v>99.2</v>
+      </c>
+      <c r="V65">
+        <v>-16.3</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>940.1</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>-4.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-36.5</v>
+      </c>
+      <c r="D66">
+        <v>800.7</v>
+      </c>
+      <c r="E66">
+        <v>423.9</v>
+      </c>
+      <c r="F66">
+        <v>469.3</v>
+      </c>
+      <c r="G66">
+        <v>1123.7</v>
+      </c>
+      <c r="H66">
+        <v>3023.5</v>
+      </c>
+      <c r="I66">
+        <v>296.89999999999998</v>
+      </c>
+      <c r="J66">
+        <v>2664.1</v>
+      </c>
+      <c r="K66">
+        <v>10.8</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>708.7</v>
+      </c>
+      <c r="O66">
+        <v>3638.3</v>
+      </c>
+      <c r="P66">
+        <v>2693</v>
+      </c>
+      <c r="Q66">
+        <v>87.6</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>7300</v>
+      </c>
+      <c r="T66">
+        <v>-614.79999999999995</v>
+      </c>
+      <c r="U66">
+        <v>186.4</v>
+      </c>
+      <c r="V66">
+        <v>188.3</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-68.3</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>-36.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-37.4</v>
+      </c>
+      <c r="D67">
+        <v>594.9</v>
+      </c>
+      <c r="E67">
+        <v>375.7</v>
+      </c>
+      <c r="F67">
+        <v>345.4</v>
+      </c>
+      <c r="G67">
+        <v>1060.9000000000001</v>
+      </c>
+      <c r="H67">
+        <v>2999</v>
+      </c>
+      <c r="I67">
+        <v>301.89999999999998</v>
+      </c>
+      <c r="J67">
+        <v>2661</v>
+      </c>
+      <c r="K67">
+        <v>11.4</v>
+      </c>
+      <c r="L67">
+        <v>-3.4</v>
+      </c>
+      <c r="M67">
+        <v>-4.5</v>
+      </c>
+      <c r="N67">
+        <v>717.8</v>
+      </c>
+      <c r="O67">
+        <v>3641</v>
+      </c>
+      <c r="P67">
+        <v>2731.4</v>
+      </c>
+      <c r="Q67">
+        <v>-65.3</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>-642</v>
+      </c>
+      <c r="U67">
+        <v>121.5</v>
+      </c>
+      <c r="V67">
+        <v>-85.6</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>30.4</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>-37.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>-36.5</v>
+      </c>
+      <c r="D68">
+        <v>645.70000000000005</v>
+      </c>
+      <c r="E68">
+        <v>389.7</v>
+      </c>
+      <c r="F68">
+        <v>378.5</v>
+      </c>
+      <c r="G68">
+        <v>1113.0999999999999</v>
+      </c>
+      <c r="H68">
+        <v>3062</v>
+      </c>
+      <c r="I68">
+        <v>344.6</v>
+      </c>
+      <c r="J68">
+        <v>2658.3</v>
+      </c>
+      <c r="K68">
+        <v>11.8</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>816.7</v>
+      </c>
+      <c r="O68">
+        <v>3734.4</v>
+      </c>
+      <c r="P68">
+        <v>2775.6</v>
+      </c>
+      <c r="Q68">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>-672.4</v>
+      </c>
+      <c r="U68">
+        <v>83.7</v>
+      </c>
+      <c r="V68">
+        <v>-53.6</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>37</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>-36.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>-32.4</v>
+      </c>
+      <c r="D69">
+        <v>666.5</v>
+      </c>
+      <c r="E69">
+        <v>459.4</v>
+      </c>
+      <c r="F69">
+        <v>376</v>
+      </c>
+      <c r="G69">
+        <v>1199.9000000000001</v>
+      </c>
+      <c r="H69">
+        <v>3167.8</v>
+      </c>
+      <c r="I69">
+        <v>344.4</v>
+      </c>
+      <c r="J69">
+        <v>2656</v>
+      </c>
+      <c r="K69">
+        <v>11.8</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>958.4</v>
+      </c>
+      <c r="O69">
+        <v>3869.7</v>
+      </c>
+      <c r="P69">
+        <v>2924.6</v>
+      </c>
+      <c r="Q69">
+        <v>-4.5</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>-701.9</v>
+      </c>
+      <c r="U69">
+        <v>79.2</v>
+      </c>
+      <c r="V69">
+        <v>-135</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>-32.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-76.900000000000006</v>
+      </c>
+      <c r="D70">
+        <v>786.6</v>
+      </c>
+      <c r="E70">
+        <v>444.8</v>
+      </c>
+      <c r="F70">
+        <v>458.7</v>
+      </c>
+      <c r="G70">
+        <v>1143.2</v>
+      </c>
+      <c r="H70">
+        <v>3056.9</v>
+      </c>
+      <c r="I70">
+        <v>336.9</v>
+      </c>
+      <c r="J70">
+        <v>2653.7</v>
+      </c>
+      <c r="K70">
+        <v>12.4</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>932.3</v>
+      </c>
+      <c r="O70">
+        <v>3827.3</v>
+      </c>
+      <c r="P70">
+        <v>2836.3</v>
+      </c>
+      <c r="Q70">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>7800</v>
+      </c>
+      <c r="T70">
+        <v>-770.4</v>
+      </c>
+      <c r="U70">
+        <v>87.1</v>
+      </c>
+      <c r="V70">
+        <v>134.9</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-89.8</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>-76.900000000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-90.3</v>
+      </c>
+      <c r="D71">
+        <v>560.70000000000005</v>
+      </c>
+      <c r="E71">
+        <v>381.1</v>
+      </c>
+      <c r="F71">
+        <v>318.10000000000002</v>
+      </c>
+      <c r="G71">
+        <v>1114.3</v>
+      </c>
+      <c r="H71">
+        <v>3042.1</v>
+      </c>
+      <c r="I71">
+        <v>345.4</v>
+      </c>
+      <c r="J71">
+        <v>2651.5</v>
+      </c>
+      <c r="K71">
+        <v>10.8</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-4.5</v>
+      </c>
+      <c r="N71">
+        <v>1009</v>
+      </c>
+      <c r="O71">
+        <v>3897.8</v>
+      </c>
+      <c r="P71">
+        <v>2916.6</v>
+      </c>
+      <c r="Q71">
+        <v>-30.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>-855.7</v>
+      </c>
+      <c r="U71">
+        <v>55.7</v>
+      </c>
+      <c r="V71">
+        <v>-97.3</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>77.2</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>-90.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-122.5</v>
+      </c>
+      <c r="D72">
+        <v>606.79999999999995</v>
+      </c>
+      <c r="E72">
+        <v>381.9</v>
+      </c>
+      <c r="F72">
+        <v>347.2</v>
+      </c>
+      <c r="G72">
+        <v>1194.8</v>
+      </c>
+      <c r="H72">
+        <v>3091.9</v>
+      </c>
+      <c r="I72">
+        <v>338</v>
+      </c>
+      <c r="J72">
+        <v>2649.3</v>
+      </c>
+      <c r="K72">
+        <v>29.8</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1188.0999999999999</v>
+      </c>
+      <c r="O72">
+        <v>4072.6</v>
+      </c>
+      <c r="P72">
+        <v>3067.1</v>
+      </c>
+      <c r="Q72">
+        <v>25.8</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>-980.7</v>
+      </c>
+      <c r="U72">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="V72">
+        <v>-92.8</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>-122.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>-11.1</v>
+      </c>
+      <c r="D73">
+        <v>655.4</v>
+      </c>
+      <c r="E73">
+        <v>441.6</v>
+      </c>
+      <c r="F73">
+        <v>350.4</v>
+      </c>
+      <c r="G73">
+        <v>1262.2</v>
+      </c>
+      <c r="H73">
+        <v>3188.3</v>
+      </c>
+      <c r="I73">
+        <v>363.2</v>
+      </c>
+      <c r="J73">
+        <v>2731.4</v>
+      </c>
+      <c r="K73">
+        <v>21.4</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1216.5</v>
+      </c>
+      <c r="O73">
+        <v>4176.5</v>
+      </c>
+      <c r="P73">
+        <v>3173.1</v>
+      </c>
+      <c r="Q73">
+        <v>-19.8</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>-988.2</v>
+      </c>
+      <c r="U73">
+        <v>61.8</v>
+      </c>
+      <c r="V73">
+        <v>-106.6</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>99.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>-11.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-70.3</v>
+      </c>
+      <c r="D74">
+        <v>741.6</v>
+      </c>
+      <c r="E74">
+        <v>431.3</v>
+      </c>
+      <c r="F74">
+        <v>431.8</v>
+      </c>
+      <c r="G74">
+        <v>1193.8</v>
+      </c>
+      <c r="H74">
+        <v>3016.8</v>
+      </c>
+      <c r="I74">
+        <v>332.1</v>
+      </c>
+      <c r="J74">
+        <v>2727.7</v>
+      </c>
+      <c r="K74">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1120.4000000000001</v>
+      </c>
+      <c r="O74">
+        <v>4073.6</v>
+      </c>
+      <c r="P74">
+        <v>3087.7</v>
+      </c>
+      <c r="Q74">
+        <v>25</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>7300</v>
+      </c>
+      <c r="T74">
+        <v>-1056.8</v>
+      </c>
+      <c r="U74">
+        <v>87.3</v>
+      </c>
+      <c r="V74">
+        <v>125.9</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-83.5</v>
+      </c>
+      <c r="Y74">
+        <v>1.5</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>-70.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>-75.099999999999994</v>
+      </c>
+      <c r="D75">
+        <v>553.20000000000005</v>
+      </c>
+      <c r="E75">
+        <v>378.5</v>
+      </c>
+      <c r="F75">
+        <v>315.39999999999998</v>
+      </c>
+      <c r="G75">
+        <v>1141.2</v>
+      </c>
+      <c r="H75">
+        <v>3041.7</v>
+      </c>
+      <c r="I75">
+        <v>355.7</v>
+      </c>
+      <c r="J75">
+        <v>2723.9</v>
+      </c>
+      <c r="K75">
+        <v>8.6</v>
+      </c>
+      <c r="L75">
+        <v>-17.2</v>
+      </c>
+      <c r="M75">
+        <v>-4.5</v>
+      </c>
+      <c r="N75">
+        <v>1131.9000000000001</v>
+      </c>
+      <c r="O75">
+        <v>4173.8999999999996</v>
+      </c>
+      <c r="P75">
+        <v>3238.3</v>
+      </c>
+      <c r="Q75">
+        <v>-17.7</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-1132.2</v>
+      </c>
+      <c r="U75">
+        <v>68.3</v>
+      </c>
+      <c r="V75">
+        <v>-28.4</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>16.2</v>
+      </c>
+      <c r="Y75">
+        <v>98.5</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>-75.099999999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>-63.7</v>
+      </c>
+      <c r="D76">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="E76">
+        <v>389.3</v>
+      </c>
+      <c r="F76">
+        <v>326.3</v>
+      </c>
+      <c r="G76">
+        <v>1176.3</v>
+      </c>
+      <c r="H76">
+        <v>3066</v>
+      </c>
+      <c r="I76">
+        <v>393.9</v>
+      </c>
+      <c r="J76">
+        <v>2723.1</v>
+      </c>
+      <c r="K76">
+        <v>5.7</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1210.2</v>
+      </c>
+      <c r="O76">
+        <v>4253.2</v>
+      </c>
+      <c r="P76">
+        <v>3251.4</v>
+      </c>
+      <c r="Q76">
+        <v>-6.6</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-1187.2</v>
+      </c>
+      <c r="U76">
+        <v>63</v>
+      </c>
+      <c r="V76">
+        <v>-12.8</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>12.4</v>
+      </c>
+      <c r="Y76">
+        <v>94.7</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>-63.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-44.7</v>
+      </c>
+      <c r="D77">
+        <v>596.79999999999995</v>
+      </c>
+      <c r="E77">
+        <v>454.9</v>
+      </c>
+      <c r="F77">
+        <v>327.8</v>
+      </c>
+      <c r="G77">
+        <v>1193.5</v>
+      </c>
+      <c r="H77">
+        <v>3059.5</v>
+      </c>
+      <c r="I77">
+        <v>322.3</v>
+      </c>
+      <c r="J77">
+        <v>2906.6</v>
+      </c>
+      <c r="K77">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1059.2</v>
+      </c>
+      <c r="O77">
+        <v>4287</v>
+      </c>
+      <c r="P77">
+        <v>3382.6</v>
+      </c>
+      <c r="Q77">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-1227.5</v>
+      </c>
+      <c r="U77">
+        <v>60.7</v>
+      </c>
+      <c r="V77">
+        <v>-125.6</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>133</v>
+      </c>
+      <c r="Y77">
+        <v>92.8</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>-44.7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>25.8</v>
+      </c>
+      <c r="D78">
+        <v>699.4</v>
+      </c>
+      <c r="E78">
+        <v>423.4</v>
+      </c>
+      <c r="F78">
+        <v>397.9</v>
+      </c>
+      <c r="G78">
+        <v>1111.4000000000001</v>
+      </c>
+      <c r="H78">
+        <v>2980.6</v>
+      </c>
+      <c r="I78">
+        <v>251.8</v>
+      </c>
+      <c r="J78">
+        <v>2906.2</v>
+      </c>
+      <c r="K78">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>956.9</v>
+      </c>
+      <c r="O78">
+        <v>4201.8</v>
+      </c>
+      <c r="P78">
+        <v>3210.9</v>
+      </c>
+      <c r="Q78">
+        <v>43.6</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>7100</v>
+      </c>
+      <c r="T78">
+        <v>-1221.2</v>
+      </c>
+      <c r="U78">
+        <v>104.3</v>
+      </c>
+      <c r="V78">
+        <v>98.5</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-77.3</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-213.9</v>
+      </c>
+      <c r="D79">
+        <v>453</v>
+      </c>
+      <c r="E79">
+        <v>326.5</v>
+      </c>
+      <c r="F79">
+        <v>255.2</v>
+      </c>
+      <c r="G79">
+        <v>1038.9000000000001</v>
+      </c>
+      <c r="H79">
+        <v>2779.6</v>
+      </c>
+      <c r="I79">
+        <v>253.3</v>
+      </c>
+      <c r="J79">
+        <v>2405.5</v>
+      </c>
+      <c r="K79">
+        <v>2.9</v>
+      </c>
+      <c r="L79">
+        <v>-6.4</v>
+      </c>
+      <c r="M79">
+        <v>-4.5</v>
+      </c>
+      <c r="N79">
+        <v>1486.4</v>
+      </c>
+      <c r="O79">
+        <v>4215.3999999999996</v>
+      </c>
+      <c r="P79">
+        <v>3374.3</v>
+      </c>
+      <c r="Q79">
+        <v>-25.3</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-1435.8</v>
+      </c>
+      <c r="U79">
+        <v>62.8</v>
+      </c>
+      <c r="V79">
+        <v>-77.599999999999994</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>57.4</v>
+      </c>
+      <c r="Y79">
+        <v>89.6</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>-213.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-126.8</v>
+      </c>
+      <c r="D80">
+        <v>347.6</v>
+      </c>
+      <c r="E80">
+        <v>288.3</v>
+      </c>
+      <c r="F80">
+        <v>179</v>
+      </c>
+      <c r="G80">
+        <v>1282.9000000000001</v>
+      </c>
+      <c r="H80">
+        <v>2999.3</v>
+      </c>
+      <c r="I80">
+        <v>224.6</v>
+      </c>
+      <c r="J80">
+        <v>2975.8</v>
+      </c>
+      <c r="K80">
+        <v>2.6</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1254</v>
+      </c>
+      <c r="O80">
+        <v>4547.8</v>
+      </c>
+      <c r="P80">
+        <v>3732.3</v>
+      </c>
+      <c r="Q80">
+        <v>264.7</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-1548.5</v>
+      </c>
+      <c r="U80">
+        <v>338.5</v>
+      </c>
+      <c r="V80">
+        <v>-86.6</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>351</v>
+      </c>
+      <c r="Y80">
+        <v>85.9</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-126.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
         <v>-44.5</v>
       </c>
-      <c r="D42">
+      <c r="D81">
         <v>477.1</v>
       </c>
-      <c r="E42">
+      <c r="E81">
         <v>340.8</v>
       </c>
-      <c r="F42">
+      <c r="F81">
         <v>242.8</v>
       </c>
-      <c r="G42">
+      <c r="G81">
         <v>1275.4000000000001</v>
       </c>
-      <c r="H42">
+      <c r="H81">
         <v>2973.3</v>
       </c>
-      <c r="I42">
+      <c r="I81">
         <v>219.9</v>
       </c>
-      <c r="J42">
+      <c r="J81">
         <v>2926.5</v>
       </c>
-      <c r="K42">
+      <c r="K81">
         <v>2</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>1314.3</v>
       </c>
-      <c r="O42">
+      <c r="O81">
         <v>4556.2</v>
       </c>
-      <c r="P42">
+      <c r="P81">
         <v>3652</v>
       </c>
-      <c r="Q42">
+      <c r="Q81">
         <v>-70.2</v>
       </c>
-      <c r="R42">
+      <c r="R81">
         <v>44104</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>-1582.9</v>
       </c>
-      <c r="U42">
+      <c r="U81">
         <v>268.3</v>
       </c>
-      <c r="V42">
+      <c r="V81">
         <v>-92.7</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
         <v>25.5</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
         <v>-44.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>-233.8</v>
+      </c>
+      <c r="D82">
+        <v>626.6</v>
+      </c>
+      <c r="E82">
+        <v>352.3</v>
+      </c>
+      <c r="F82">
+        <v>366.8</v>
+      </c>
+      <c r="G82">
+        <v>1046.4000000000001</v>
+      </c>
+      <c r="H82">
+        <v>2527.6999999999998</v>
+      </c>
+      <c r="I82">
+        <v>203.3</v>
+      </c>
+      <c r="J82">
+        <v>3105</v>
+      </c>
+      <c r="K82">
+        <v>2.5</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>844.2</v>
+      </c>
+      <c r="O82">
+        <v>4389.7</v>
+      </c>
+      <c r="P82">
+        <v>3428.5</v>
+      </c>
+      <c r="Q82">
+        <v>-171.2</v>
+      </c>
+      <c r="R82">
+        <v>44196</v>
+      </c>
+      <c r="S82">
+        <v>6000</v>
+      </c>
+      <c r="T82">
+        <v>-1862</v>
+      </c>
+      <c r="U82">
+        <v>97.1</v>
+      </c>
+      <c r="V82">
+        <v>159.6</v>
+      </c>
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>-331.4</v>
+      </c>
+      <c r="Y82">
+        <v>86.9</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>-233.8</v>
       </c>
     </row>
   </sheetData>
